--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minul\Documents\GitHubClassroom\order-book-project-t1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C863DC-C2CB-4AF6-A42A-F023AB29BB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCF04B-2EF3-4E1A-B6D8-11217BAD97A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15855" yWindow="585" windowWidth="14415" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Entity</t>
   </si>
@@ -146,13 +146,158 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>A purchase or sale inquiry for a stock</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>The volume of stock for a given order</t>
+  </si>
+  <si>
+    <t>Whether an order is a buy or sell order</t>
+  </si>
+  <si>
+    <t>Time (order)</t>
+  </si>
+  <si>
+    <t>The time at which an order is placed</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>If the order listing is still available to execute</t>
+  </si>
+  <si>
+    <t>Offer Price</t>
+  </si>
+  <si>
+    <t>The sale or buy price of a share of a stock order</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Associated ticker symbol for a given stock</t>
+  </si>
+  <si>
+    <t>The fulfillment of a given buy order and sell order</t>
+  </si>
+  <si>
+    <t>Buy Order ID</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>ID number for a given order</t>
+  </si>
+  <si>
+    <t>The Order ID associated with the buy order of a transaction</t>
+  </si>
+  <si>
+    <t>Sell Order ID</t>
+  </si>
+  <si>
+    <t>The Order ID associated with the sell order of a transaction</t>
+  </si>
+  <si>
+    <t>Final Time</t>
+  </si>
+  <si>
+    <t>The time at which a transaction is completed</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>The price at which the transaction was executed</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>The volume of shares sold/bought in the transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Symbol </t>
+  </si>
+  <si>
+    <t>The ticker symbol for stock bought/sold in the transaction</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When the buy order price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sell order price</t>
+    </r>
+  </si>
+  <si>
+    <t>Buy Order</t>
+  </si>
+  <si>
+    <t>Sell Order</t>
+  </si>
+  <si>
+    <t>An inquiry to purchase a specific stock at a specific price</t>
+  </si>
+  <si>
+    <t>An inquiry to sell a specific stock at a specific price</t>
+  </si>
+  <si>
+    <t>Delete Order</t>
+  </si>
+  <si>
+    <t>Remove a buy or sell order from the orderbook</t>
+  </si>
+  <si>
+    <t>Order Book</t>
+  </si>
+  <si>
+    <t>List of orders that show interest of buyers to sell or buy a financial instrument (stock)</t>
+  </si>
+  <si>
+    <t>Trade History</t>
+  </si>
+  <si>
+    <t>List of all transaction that have occurred in the past</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,8 +323,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +344,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,14 +363,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -216,6 +391,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -436,10 +629,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -450,335 +643,483 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>320.67</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>45</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3" t="s">
+      <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>50</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
+      <c r="J13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
+      <c r="J14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>45</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>